--- a/input_csv/03_Gehaeuse/artikel.xlsx
+++ b/input_csv/03_Gehaeuse/artikel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\03_Gehaeuse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96123DBD-1B10-4BC0-AEC7-611D941ED59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D542554-88A2-4FE9-B17A-6BE372E4047D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="0" windowWidth="21600" windowHeight="14010" xr2:uid="{49964F96-7016-408A-B9F1-82EBE7E4DC19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49964F96-7016-408A-B9F1-82EBE7E4DC19}"/>
   </bookViews>
   <sheets>
     <sheet name="Gehäuse" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Artikelname</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Be Quiet! PURE BASE 501 - Airflow Window White BGW75</t>
+  </si>
+  <si>
+    <t>Be Quiet! Shadow Base 800 | Glasfenster - schwarz</t>
   </si>
 </sst>
 </file>
@@ -908,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39DE48C-9215-4964-B44D-F102CDA843EF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +979,17 @@
         <v>4260052191835</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>100001</v>
+      </c>
+      <c r="C6">
+        <v>4260052190609</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input_csv/03_Gehaeuse/artikel.xlsx
+++ b/input_csv/03_Gehaeuse/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\03_Gehaeuse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D542554-88A2-4FE9-B17A-6BE372E4047D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772EB446-51F1-4873-BB1C-6D349FF20525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49964F96-7016-408A-B9F1-82EBE7E4DC19}"/>
   </bookViews>
@@ -914,7 +914,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_csv/03_Gehaeuse/artikel.xlsx
+++ b/input_csv/03_Gehaeuse/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\03_Gehaeuse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772EB446-51F1-4873-BB1C-6D349FF20525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D105A886-9DA3-4FAC-9ADC-2B06FD4E777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49964F96-7016-408A-B9F1-82EBE7E4DC19}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Artikelname</t>
   </si>
@@ -34,29 +34,101 @@
     <t>MSI MAG PANO 110R PZ Mid Tower Schwarz</t>
   </si>
   <si>
-    <t>4,71138E+12</t>
-  </si>
-  <si>
-    <t>ASUS Prime AP201 Tempered Glass micro-ATX Tower - Schwarz</t>
-  </si>
-  <si>
-    <t>4,71108E+12</t>
-  </si>
-  <si>
-    <t>NZXT H7 FLOW RGB Midi-Tower - White</t>
-  </si>
-  <si>
-    <t>Be Quiet! PURE BASE 501 - Airflow Window White BGW75</t>
-  </si>
-  <si>
-    <t>Be Quiet! Shadow Base 800 | Glasfenster - schwarz</t>
+    <t>AeroCool Viewport-Mini-BK-v2 Mini-Tower</t>
+  </si>
+  <si>
+    <t>ASUS A31 Plus TG ARGB Midi Tower - Black</t>
+  </si>
+  <si>
+    <t>Asus PRIME AP202 TG ARGB BLACK</t>
+  </si>
+  <si>
+    <t>Asus PRIME AP202 TG ARGB WHITE</t>
+  </si>
+  <si>
+    <t>ASUS Prime AP201 Tempered Glass</t>
+  </si>
+  <si>
+    <t>ASUS ROG Hyperion GR701</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix Helios</t>
+  </si>
+  <si>
+    <t>Be Quiet! LIGHT BASE 500</t>
+  </si>
+  <si>
+    <t>Be Quiet! LIGHT BASE 500 LX</t>
+  </si>
+  <si>
+    <t>Be Quiet! LIGHT BASE 600 LX</t>
+  </si>
+  <si>
+    <t>Be Quiet! LIGHT BASE 900 FX</t>
+  </si>
+  <si>
+    <t>Be Quiet! PURE BASE 501 - Airflow</t>
+  </si>
+  <si>
+    <t>MSI Cubi NUC 1MG-007BDE Barebone i7-150U</t>
+  </si>
+  <si>
+    <t>MSI Cubi NUC 1MG-008BDE  Barebone i5-120U</t>
+  </si>
+  <si>
+    <t>MSI MAG FORGE 320R Weiß</t>
+  </si>
+  <si>
+    <t>NZXT H9 Flow</t>
+  </si>
+  <si>
+    <t>Cooler Master MasterBox TD300 Mesh Zenchilli</t>
+  </si>
+  <si>
+    <t>Corsair 2500D Airflow Tempered Glass Mid-Tower, Black</t>
+  </si>
+  <si>
+    <t>Corsair 3500X ARGB Tempered Glass Mid-Tower schwarz  inkl. 4x ARGB Lüfter</t>
+  </si>
+  <si>
+    <t>Corsair 5000D RGB AIRFLOW - Midi Tower schwarz</t>
+  </si>
+  <si>
+    <t>Corsair 6500D Airflow</t>
+  </si>
+  <si>
+    <t>Corsair 6500X Tempered Glass Mid-Tower, Black</t>
+  </si>
+  <si>
+    <t>Corsair 6500X Mid-Tower White</t>
+  </si>
+  <si>
+    <t>Corsair FRAME 4000D RS ARGB</t>
+  </si>
+  <si>
+    <t>Corsair FRAME 4000D RS ARGB - weiß - inkl. 4x ARGB Lüfter</t>
+  </si>
+  <si>
+    <t>Fractal Design North Chalk</t>
+  </si>
+  <si>
+    <t>Fractal Design North Mesh</t>
+  </si>
+  <si>
+    <t>Fractal Design North Tempered Glass</t>
+  </si>
+  <si>
+    <t>GIGABYTE C102 Glass, Tower-Gehäuse</t>
+  </si>
+  <si>
+    <t>Xilence XG172 ARGB XILENT BEAM Gaming Case Black</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +259,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,9 +612,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,17 +991,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39DE48C-9215-4964-B44D-F102CDA843EF}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,58 +1016,388 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>107168</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="2">
+        <v>106987</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>106573</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>107083</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4711387808856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="2">
+        <v>107109</v>
+      </c>
+      <c r="C4">
+        <v>4711636006521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>106885</v>
-      </c>
-      <c r="C4">
-        <v>5056547205533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="2">
+        <v>107110</v>
+      </c>
+      <c r="C5">
+        <v>4711636006613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>106870</v>
-      </c>
-      <c r="C5">
-        <v>4260052191835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="2">
+        <v>106574</v>
+      </c>
+      <c r="C6">
+        <v>4711081771920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>100001</v>
-      </c>
-      <c r="C6">
-        <v>4260052190609</v>
+      <c r="B7" s="2">
+        <v>106329</v>
+      </c>
+      <c r="C7">
+        <v>4711081982784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>106328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>107115</v>
+      </c>
+      <c r="C9">
+        <v>4260052193808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>107116</v>
+      </c>
+      <c r="C10">
+        <v>4260052193808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>107117</v>
+      </c>
+      <c r="C11">
+        <v>4260052193891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>107035</v>
+      </c>
+      <c r="C12">
+        <v>4260052191736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>107036</v>
+      </c>
+      <c r="C13">
+        <v>4260052191743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>107033</v>
+      </c>
+      <c r="C14">
+        <v>4260052191774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>107034</v>
+      </c>
+      <c r="C15">
+        <v>4260052191781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>106872</v>
+      </c>
+      <c r="C16">
+        <v>4260052191811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>106609</v>
+      </c>
+      <c r="C17">
+        <v>4711377220958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>106610</v>
+      </c>
+      <c r="C18">
+        <v>4711377220965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>106535</v>
+      </c>
+      <c r="C19">
+        <v>4711377193474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>107168</v>
+      </c>
+      <c r="C20">
+        <v>4711377293181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>106189</v>
+      </c>
+      <c r="C21">
+        <v>5056547202419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>107129</v>
+      </c>
+      <c r="C22">
+        <v>4719512132708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>106477</v>
+      </c>
+      <c r="C23">
+        <v>840006671411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>107031</v>
+      </c>
+      <c r="C24">
+        <v>840006686057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>106416</v>
+      </c>
+      <c r="C25">
+        <v>840006694342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>106473</v>
+      </c>
+      <c r="C26">
+        <v>840006664710</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>106475</v>
+      </c>
+      <c r="C27">
+        <v>840006664697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>106476</v>
+      </c>
+      <c r="C28">
+        <v>840006664703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>106992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>106993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>106371</v>
+      </c>
+      <c r="C31">
+        <v>7340172704737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>106332</v>
+      </c>
+      <c r="C32">
+        <v>7340172704706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>106334</v>
+      </c>
+      <c r="C33">
+        <v>7340172704720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>106333</v>
+      </c>
+      <c r="C34">
+        <v>7340172704713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <v>106335</v>
+      </c>
+      <c r="C35">
+        <v>7340172704737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>107060</v>
+      </c>
+      <c r="C36">
+        <v>4719331554835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2">
+        <v>106989</v>
+      </c>
+      <c r="C37">
+        <v>4044953504082</v>
       </c>
     </row>
   </sheetData>
